--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="304"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
   <si>
     <t>title</t>
   </si>
@@ -39,31 +39,415 @@
     <t>note</t>
   </si>
   <si>
-    <t>خصم على جميع المنتجات</t>
-  </si>
-  <si>
-    <t>scaios2025</t>
-  </si>
-  <si>
     <t>https://f.top4top.io/p_3389y71vl1.png</t>
   </si>
   <si>
-    <t>https://www.discountcoupon.online</t>
-  </si>
-  <si>
     <t>السعودية</t>
   </si>
   <si>
-    <t>صالح للاستخدام عدة مرات</t>
-  </si>
-  <si>
-    <t>نمشي</t>
-  </si>
-  <si>
-    <t>نوون</t>
-  </si>
-  <si>
-    <t>scaios2026</t>
+    <t>خصم 56% على نطاق .كوم</t>
+  </si>
+  <si>
+    <t>NEWCOM649</t>
+  </si>
+  <si>
+    <t>جميع الدول</t>
+  </si>
+  <si>
+    <t>يستخدم مرة واحدة فقط لكل حساب</t>
+  </si>
+  <si>
+    <t>https://www.anrdoezrs.net/click-101416703-15896257</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_33913ycoo4.png</t>
+  </si>
+  <si>
+    <t>كاش باك – خصم 40% على منتجات هيبسي</t>
+  </si>
+  <si>
+    <t>NM389</t>
+  </si>
+  <si>
+    <t>https://www.namshi.com</t>
+  </si>
+  <si>
+    <t>السعودية - قطر - البحرين - الإمارات - عمان - الكويت</t>
+  </si>
+  <si>
+    <t>الحد الأقصى للخصم: 200 درهم إماراتي - 200 ريال سعودي</t>
+  </si>
+  <si>
+    <t>خصم 15% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>KZARVV</t>
+  </si>
+  <si>
+    <t>https://duratak.com/</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام عدة مرات</t>
+  </si>
+  <si>
+    <t>خصم 10% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>SJAL38</t>
+  </si>
+  <si>
+    <t>https://www.lg.com/</t>
+  </si>
+  <si>
+    <t>لا توجد ملاحظات</t>
+  </si>
+  <si>
+    <t>خصم 12% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>SFF62</t>
+  </si>
+  <si>
+    <t>https://stylishop.com/</t>
+  </si>
+  <si>
+    <t>البحرين - الكويت - السعودية - الإمارات</t>
+  </si>
+  <si>
+    <t>CE30</t>
+  </si>
+  <si>
+    <t>https://www.aceuae.com/</t>
+  </si>
+  <si>
+    <t>قطر - الإمارات</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرتين</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_339167dq52.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_33910xoz63.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33896ltek2.png</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3391r361b1.png</t>
+  </si>
+  <si>
+    <t>PSA157</t>
+  </si>
+  <si>
+    <t>https://www.noonnownow.com/</t>
+  </si>
+  <si>
+    <t>السعودية - الإمارات</t>
+  </si>
+  <si>
+    <t>خصم 5% - 30% على جميع الطلبات</t>
+  </si>
+  <si>
+    <t>خصم 20% - 30% للعميل الجديد و 5% للقديم</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3391qmq1y1.png</t>
+  </si>
+  <si>
+    <t>ADM20</t>
+  </si>
+  <si>
+    <t>https://ae.diesel.com/ae_en</t>
+  </si>
+  <si>
+    <t>السعودية - الإمارات - الكويت</t>
+  </si>
+  <si>
+    <t>الكوبون غير قابل للتطبيق على المنتجات التي عليها تخفيض</t>
+  </si>
+  <si>
+    <t>BE46</t>
+  </si>
+  <si>
+    <t>https://www.byedit.com/</t>
+  </si>
+  <si>
+    <t>الإمارات</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل مرة واحدة فقط لكل مستخدم</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3391rwsj21.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_339189o732.png</t>
+  </si>
+  <si>
+    <t>خصم 8$ من سعر المنتج</t>
+  </si>
+  <si>
+    <t>lC8Kuc62Vh</t>
+  </si>
+  <si>
+    <t>https://www.glasseslit.com/</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل مع المنتجات فوق 10 دولار فقط</t>
+  </si>
+  <si>
+    <t>ثلاث أشهر مجانية لخدمة VPN</t>
+  </si>
+  <si>
+    <t>HMNN9WM</t>
+  </si>
+  <si>
+    <t>https://hide.mn/</t>
+  </si>
+  <si>
+    <t>يمنحك الكوبون ثلاثة أشهر إضافية من VPN كهدية عند شراء باقة لمدة عام أو أكثر.</t>
+  </si>
+  <si>
+    <t>ADM28</t>
+  </si>
+  <si>
+    <t>https://ae.igp.com/</t>
+  </si>
+  <si>
+    <t>خصم 10% على بعض المنتجات</t>
+  </si>
+  <si>
+    <t>LS4</t>
+  </si>
+  <si>
+    <t>https://linkstore.ae/</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل على منتجات محددة فقط</t>
+  </si>
+  <si>
+    <t>JE46</t>
+  </si>
+  <si>
+    <t>https://maje.sa/</t>
+  </si>
+  <si>
+    <t>الكوبون قابل للاستخدام مرتين فقط</t>
+  </si>
+  <si>
+    <t>خصم 20% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>F9yhe</t>
+  </si>
+  <si>
+    <t>https://puzzle-movies.com/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3391be0pf1.png</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_33910v0292.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33916x3lr3.png</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3391q8hu24.png</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3391peoh55.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3391wufk16.png</t>
+  </si>
+  <si>
+    <t>AM10</t>
+  </si>
+  <si>
+    <t>https://www.sandro.ae/</t>
+  </si>
+  <si>
+    <t>يجب عليك التسجيل لتفعيل الكوبون</t>
+  </si>
+  <si>
+    <t>TW3</t>
+  </si>
+  <si>
+    <t>https://tedbaker.sa/</t>
+  </si>
+  <si>
+    <t>خصم 5 ريال سعودي</t>
+  </si>
+  <si>
+    <t>BS27</t>
+  </si>
+  <si>
+    <t>https://toyou.io/</t>
+  </si>
+  <si>
+    <t>الكوبون يطبق على سلة مشتريات لا تقل عن 35 ريال سعودي.</t>
+  </si>
+  <si>
+    <t>خصم 10% على أول طلب</t>
+  </si>
+  <si>
+    <t>AD94</t>
+  </si>
+  <si>
+    <t>https://www.tradeling.com</t>
+  </si>
+  <si>
+    <t>الحد الأدنى لقيمة الطلب للاستفادة من الخصم هو 100 درهم إماراتي، والحد الأقصى للخصم 20 درهم إماراتي. صالح للمستخدمين الجدد فقط.</t>
+  </si>
+  <si>
+    <t>خصم 20% - 80% على بعض المنتجات</t>
+  </si>
+  <si>
+    <t>BQ7</t>
+  </si>
+  <si>
+    <t>https://vogacloset.com/</t>
+  </si>
+  <si>
+    <t>عمان - الكويت - لبنان - البحرين - ليبيا - قطر - المغرب - الأردن -الإمارات - العراق - السعودية</t>
+  </si>
+  <si>
+    <t>خصم الكوبون يختلف من منتج لأخر</t>
+  </si>
+  <si>
+    <t>TW2</t>
+  </si>
+  <si>
+    <t>https://www.watsons.ae/</t>
+  </si>
+  <si>
+    <t>خصم 3% على الطلبات</t>
+  </si>
+  <si>
+    <t>AD26</t>
+  </si>
+  <si>
+    <t>https://drive.yango.com/</t>
+  </si>
+  <si>
+    <t>كاش باك يصل حتى 10% على جميع الطلبات</t>
+  </si>
+  <si>
+    <t>1CM1129</t>
+  </si>
+  <si>
+    <t>https://www.noon.com/saudi-ar/</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_33923l64d1.png</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3392qpwst2.png</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3392z69ca3.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3392j1gw04.png</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3392yyyzq5.png</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_33926kbin6.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3392z0f2z7.png</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_339275buq8.png</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33920pvoe9.png</t>
+  </si>
+  <si>
+    <t>خصم 5% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>XBIVMC</t>
+  </si>
+  <si>
+    <t>https://sorose.sa/</t>
+  </si>
+  <si>
+    <t>كوبون نيم شيب - Neamcheap Coupon</t>
+  </si>
+  <si>
+    <t>كوبون نمشي - Namshi Coupon</t>
+  </si>
+  <si>
+    <t>كوبون دوراتك - Duratak Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ال جي - LG Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ستايلي - Styli Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ايس - ACE Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ناو ناو - Now Now Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ديزل - Diesel Coupon</t>
+  </si>
+  <si>
+    <t>كوبون إيديت أحمد صديقي - EDIT By Ahmed Seddiqi Coupon</t>
+  </si>
+  <si>
+    <t>كوبون جلاسيس ليت - Glasseslit Coupon</t>
+  </si>
+  <si>
+    <t>كوبون هيد ماي نايم - Hidemyname VPN Coupon</t>
+  </si>
+  <si>
+    <t>كوبون اي جي بي - IGP Coupon</t>
+  </si>
+  <si>
+    <t>كوبون لينك ستور - Link Store Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ماج باريس - Maje Paris Coupon</t>
+  </si>
+  <si>
+    <t>كوبون بازل موفيز - Puzzle Movies Coupon</t>
+  </si>
+  <si>
+    <t>كوبون ساندرو - Sandro Coupon</t>
+  </si>
+  <si>
+    <t>كوبون تيد بيكر - Ted Baker Coupon</t>
+  </si>
+  <si>
+    <t>كوبون تويو - ToYou Coupon</t>
+  </si>
+  <si>
+    <t>كوبون تريدلنغ - Tradeling Coupon</t>
+  </si>
+  <si>
+    <t>كوبون فوغا كلوسيت - VogaCloset Coupon</t>
+  </si>
+  <si>
+    <t>كوبون واتسونز - Watsons Coupon</t>
+  </si>
+  <si>
+    <t>كوبون يانجو درايف - Yango Drive Coupon</t>
+  </si>
+  <si>
+    <t>كوبون نون - Noon Coupon</t>
+  </si>
+  <si>
+    <t>كوبون سوروزيه - Sorose Coupon</t>
   </si>
 </sst>
 </file>
@@ -79,23 +463,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,18 +493,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,99 +827,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.21875" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="71.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="103.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -378,76 +378,76 @@
     <t>https://sorose.sa/</t>
   </si>
   <si>
-    <t>كوبون نيم شيب - Neamcheap Coupon</t>
-  </si>
-  <si>
-    <t>كوبون نمشي - Namshi Coupon</t>
-  </si>
-  <si>
-    <t>كوبون دوراتك - Duratak Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ال جي - LG Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ستايلي - Styli Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ايس - ACE Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ناو ناو - Now Now Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ديزل - Diesel Coupon</t>
-  </si>
-  <si>
-    <t>كوبون إيديت أحمد صديقي - EDIT By Ahmed Seddiqi Coupon</t>
-  </si>
-  <si>
-    <t>كوبون جلاسيس ليت - Glasseslit Coupon</t>
-  </si>
-  <si>
-    <t>كوبون هيد ماي نايم - Hidemyname VPN Coupon</t>
-  </si>
-  <si>
-    <t>كوبون اي جي بي - IGP Coupon</t>
-  </si>
-  <si>
-    <t>كوبون لينك ستور - Link Store Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ماج باريس - Maje Paris Coupon</t>
-  </si>
-  <si>
-    <t>كوبون بازل موفيز - Puzzle Movies Coupon</t>
-  </si>
-  <si>
-    <t>كوبون ساندرو - Sandro Coupon</t>
-  </si>
-  <si>
-    <t>كوبون تيد بيكر - Ted Baker Coupon</t>
-  </si>
-  <si>
-    <t>كوبون تويو - ToYou Coupon</t>
-  </si>
-  <si>
-    <t>كوبون تريدلنغ - Tradeling Coupon</t>
-  </si>
-  <si>
-    <t>كوبون فوغا كلوسيت - VogaCloset Coupon</t>
-  </si>
-  <si>
-    <t>كوبون واتسونز - Watsons Coupon</t>
-  </si>
-  <si>
-    <t>كوبون يانجو درايف - Yango Drive Coupon</t>
-  </si>
-  <si>
-    <t>كوبون نون - Noon Coupon</t>
-  </si>
-  <si>
-    <t>كوبون سوروزيه - Sorose Coupon</t>
+    <t>نيم شيب - Neamcheap Coupon</t>
+  </si>
+  <si>
+    <t>نمشي - Namshi Coupon</t>
+  </si>
+  <si>
+    <t>دوراتك - Duratak Coupon</t>
+  </si>
+  <si>
+    <t>ال جي - LG Coupon</t>
+  </si>
+  <si>
+    <t>ستايلي - Styli Coupon</t>
+  </si>
+  <si>
+    <t>ايس - ACE Coupon</t>
+  </si>
+  <si>
+    <t>ناو ناو - Now Now Coupon</t>
+  </si>
+  <si>
+    <t>ديزل - Diesel Coupon</t>
+  </si>
+  <si>
+    <t>إيديت أحمد صديقي - EDIT By Ahmed Seddiqi Coupon</t>
+  </si>
+  <si>
+    <t>جلاسيس ليت - Glasseslit Coupon</t>
+  </si>
+  <si>
+    <t>هيد ماي نايم - Hidemyname VPN Coupon</t>
+  </si>
+  <si>
+    <t>اي جي بي - IGP Coupon</t>
+  </si>
+  <si>
+    <t>لينك ستور - Link Store Coupon</t>
+  </si>
+  <si>
+    <t>ماج باريس - Maje Paris Coupon</t>
+  </si>
+  <si>
+    <t>بازل موفيز - Puzzle Movies Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ساندرو - Sandro Coupon</t>
+  </si>
+  <si>
+    <t>تيد بيكر - Ted Baker Coupon</t>
+  </si>
+  <si>
+    <t>تويو - ToYou Coupon</t>
+  </si>
+  <si>
+    <t>تريدلنغ - Tradeling Coupon</t>
+  </si>
+  <si>
+    <t>فوغا كلوسيت - VogaCloset Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> واتسونز - Watsons Coupon</t>
+  </si>
+  <si>
+    <t>يانجو درايف - Yango Drive Coupon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نون - Noon Coupon</t>
+  </si>
+  <si>
+    <t>سوروزيه - Sorose Coupon</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="215">
   <si>
     <t>title</t>
   </si>
@@ -207,9 +205,6 @@
     <t>https://hide.mn/</t>
   </si>
   <si>
-    <t>يمنحك الكوبون ثلاثة أشهر إضافية من VPN كهدية عند شراء باقة لمدة عام أو أكثر.</t>
-  </si>
-  <si>
     <t>ADM28</t>
   </si>
   <si>
@@ -300,9 +295,6 @@
     <t>https://www.tradeling.com</t>
   </si>
   <si>
-    <t>الحد الأدنى لقيمة الطلب للاستفادة من الخصم هو 100 درهم إماراتي، والحد الأقصى للخصم 20 درهم إماراتي. صالح للمستخدمين الجدد فقط.</t>
-  </si>
-  <si>
     <t>خصم 20% - 80% على بعض المنتجات</t>
   </si>
   <si>
@@ -448,6 +440,225 @@
   </si>
   <si>
     <t>سوروزيه - Sorose Coupon</t>
+  </si>
+  <si>
+    <t>كوبون بلندز - Blends Coupon</t>
+  </si>
+  <si>
+    <t>AMD-019</t>
+  </si>
+  <si>
+    <t>https://blendshome.com/</t>
+  </si>
+  <si>
+    <t>يمنحك الكوبون ثلاثة أشهر إضافية من VPN كهدية عند شراء باقة لمدة عام أو أكثر</t>
+  </si>
+  <si>
+    <t>الحد الأدنى لقيمة الطلب للاستفادة من الخصم هو 100 درهم إماراتي، والحد الأقصى للخصم 20 درهم إماراتي. صالح للمستخدمين الجدد فقط</t>
+  </si>
+  <si>
+    <t>كوبون تيمو - Temu Coupon</t>
+  </si>
+  <si>
+    <t>خصم 30% + كوبونات بقيمة 100$</t>
+  </si>
+  <si>
+    <t>acv789905</t>
+  </si>
+  <si>
+    <t>https://temu.to/k/ez1g79jx81e</t>
+  </si>
+  <si>
+    <t>الكوبون يعمل بعد تحميل التطبيق ويجب استخدامه خلال ساعة من التسجيل</t>
+  </si>
+  <si>
+    <t>كوبون كوهوم - Coohom Coupon</t>
+  </si>
+  <si>
+    <t>خصم 75% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>https://www.coohom.com/</t>
+  </si>
+  <si>
+    <t>كوبون بيتونيا - Baytonia Coupon</t>
+  </si>
+  <si>
+    <t>AD57</t>
+  </si>
+  <si>
+    <t>https://baytonia.com/</t>
+  </si>
+  <si>
+    <t>كوبون جلوبال يو - Global YO Coupon</t>
+  </si>
+  <si>
+    <t>خصم 10$ على جميع الخطط</t>
+  </si>
+  <si>
+    <t>ADMITAD7</t>
+  </si>
+  <si>
+    <t>https://www.globalyo.com/</t>
+  </si>
+  <si>
+    <t>كوبون ون كارد - OneCard Coupon</t>
+  </si>
+  <si>
+    <t>خصم 1% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>ad23</t>
+  </si>
+  <si>
+    <t>https://www.onecard.com/sa-en/</t>
+  </si>
+  <si>
+    <t>لا يشمل الكوبون بطاقة HungerStation والبطاقات المخفضة بالفعل</t>
+  </si>
+  <si>
+    <t>كوبون بازل إنجلش - Puzzle English Coupon</t>
+  </si>
+  <si>
+    <t>خصم يصل 70$ على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>adm_e5ASA</t>
+  </si>
+  <si>
+    <t>https://puzzle-english.com/</t>
+  </si>
+  <si>
+    <t>كوبون سيفي - Sivvi Coupon</t>
+  </si>
+  <si>
+    <t>خصم يصل 20% على جميع المنتجات</t>
+  </si>
+  <si>
+    <t>ctw145</t>
+  </si>
+  <si>
+    <t>https://www.sivvi.com/saudi-ar/</t>
+  </si>
+  <si>
+    <t>السعودية- الإمارات</t>
+  </si>
+  <si>
+    <t>خصم 20% للعميل الجديد و 5% للعميل السابق</t>
+  </si>
+  <si>
+    <t>كوبون مجموعة طبيب - Tabib Group Coupon</t>
+  </si>
+  <si>
+    <t>خصم 30% لجميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA157</t>
+  </si>
+  <si>
+    <t>https://tabibgroup.net/</t>
+  </si>
+  <si>
+    <t>كوبون نسبة - Nesbh Coupon</t>
+  </si>
+  <si>
+    <t>LA266</t>
+  </si>
+  <si>
+    <t>https://www.nesbh.com/</t>
+  </si>
+  <si>
+    <t>كوبون ستور اص - Storeus Coupon</t>
+  </si>
+  <si>
+    <t>ADM40</t>
+  </si>
+  <si>
+    <t>https://storeus.com/</t>
+  </si>
+  <si>
+    <t>الحد الأقصى للخصم هو 40 درهم إماراتي,لا ينطبق الكوبون على المنتجات المخفضة</t>
+  </si>
+  <si>
+    <t>كوبون سويس اربيان - Swiss Arabian Coupon</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>https://swissarabian.com/</t>
+  </si>
+  <si>
+    <t>السعودية - قطر - الإمارات - عمان - الكويت</t>
+  </si>
+  <si>
+    <t>كوبون فسرلي - Fasrly Coupon</t>
+  </si>
+  <si>
+    <t>خصم 10% على جميع الخدمات</t>
+  </si>
+  <si>
+    <t>LA299</t>
+  </si>
+  <si>
+    <t>https://fasrly.com/ar/</t>
+  </si>
+  <si>
+    <t>عمان - الكويت - البحرين - قطر - الإمارات - السعودية</t>
+  </si>
+  <si>
+    <t>LA0470</t>
+  </si>
+  <si>
+    <t>https://bynh.sa/</t>
+  </si>
+  <si>
+    <t>https://i.top4top.io/p_3397d7x5s4.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3397o6y932.png</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_3397ixgus1.png</t>
+  </si>
+  <si>
+    <t>https://h.top4top.io/p_3397kup283.png</t>
+  </si>
+  <si>
+    <t>https://j.top4top.io/p_3397ybq0i5.png</t>
+  </si>
+  <si>
+    <t>https://k.top4top.io/p_3397m4vd26.png</t>
+  </si>
+  <si>
+    <t>https://l.top4top.io/p_339701dr57.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_339730dym8.png</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_3397lijvt9.png</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33977axkq10.png</t>
+  </si>
+  <si>
+    <t>https://a.top4top.io/p_3397x2wvp1.png</t>
+  </si>
+  <si>
+    <t>https://b.top4top.io/p_33975vdyh2.png</t>
+  </si>
+  <si>
+    <t>https://c.top4top.io/p_33970eb773.png</t>
+  </si>
+  <si>
+    <t>https://d.top4top.io/p_3397flakg4.png</t>
+  </si>
+  <si>
+    <t>كوبون بينه - Bynh Coupon</t>
   </si>
 </sst>
 </file>
@@ -827,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -870,7 +1081,7 @@
     </row>
     <row r="2" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -893,7 +1104,7 @@
     </row>
     <row r="3" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -916,7 +1127,7 @@
     </row>
     <row r="4" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
@@ -939,7 +1150,7 @@
     </row>
     <row r="5" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
@@ -962,7 +1173,7 @@
     </row>
     <row r="6" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -985,7 +1196,7 @@
     </row>
     <row r="7" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -1008,7 +1219,7 @@
     </row>
     <row r="8" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
@@ -1031,7 +1242,7 @@
     </row>
     <row r="9" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -1054,7 +1265,7 @@
     </row>
     <row r="10" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -1077,7 +1288,7 @@
     </row>
     <row r="11" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>56</v>
@@ -1089,7 +1300,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -1100,7 +1311,7 @@
     </row>
     <row r="12" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>60</v>
@@ -1112,30 +1323,30 @@
         <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>52</v>
@@ -1146,65 +1357,65 @@
     </row>
     <row r="14" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1215,157 +1426,157 @@
     </row>
     <row r="17" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>52</v>
@@ -1376,19 +1587,19 @@
     </row>
     <row r="24" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>42</v>
@@ -1399,19 +1610,19 @@
     </row>
     <row r="25" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
@@ -1421,41 +1632,420 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="A26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -442,9 +442,6 @@
     <t>سوروزيه - Sorose Coupon</t>
   </si>
   <si>
-    <t>كوبون بلندز - Blends Coupon</t>
-  </si>
-  <si>
     <t>AMD-019</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
     <t>الحد الأدنى لقيمة الطلب للاستفادة من الخصم هو 100 درهم إماراتي، والحد الأقصى للخصم 20 درهم إماراتي. صالح للمستخدمين الجدد فقط</t>
   </si>
   <si>
-    <t>كوبون تيمو - Temu Coupon</t>
-  </si>
-  <si>
     <t>خصم 30% + كوبونات بقيمة 100$</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>الكوبون يعمل بعد تحميل التطبيق ويجب استخدامه خلال ساعة من التسجيل</t>
   </si>
   <si>
-    <t>كوبون كوهوم - Coohom Coupon</t>
-  </si>
-  <si>
     <t>خصم 75% على جميع المنتجات</t>
   </si>
   <si>
@@ -484,18 +475,12 @@
     <t>https://www.coohom.com/</t>
   </si>
   <si>
-    <t>كوبون بيتونيا - Baytonia Coupon</t>
-  </si>
-  <si>
     <t>AD57</t>
   </si>
   <si>
     <t>https://baytonia.com/</t>
   </si>
   <si>
-    <t>كوبون جلوبال يو - Global YO Coupon</t>
-  </si>
-  <si>
     <t>خصم 10$ على جميع الخطط</t>
   </si>
   <si>
@@ -505,9 +490,6 @@
     <t>https://www.globalyo.com/</t>
   </si>
   <si>
-    <t>كوبون ون كارد - OneCard Coupon</t>
-  </si>
-  <si>
     <t>خصم 1% على جميع المنتجات</t>
   </si>
   <si>
@@ -520,9 +502,6 @@
     <t>لا يشمل الكوبون بطاقة HungerStation والبطاقات المخفضة بالفعل</t>
   </si>
   <si>
-    <t>كوبون بازل إنجلش - Puzzle English Coupon</t>
-  </si>
-  <si>
     <t>خصم يصل 70$ على جميع المنتجات</t>
   </si>
   <si>
@@ -532,9 +511,6 @@
     <t>https://puzzle-english.com/</t>
   </si>
   <si>
-    <t>كوبون سيفي - Sivvi Coupon</t>
-  </si>
-  <si>
     <t>خصم يصل 20% على جميع المنتجات</t>
   </si>
   <si>
@@ -550,9 +526,6 @@
     <t>خصم 20% للعميل الجديد و 5% للعميل السابق</t>
   </si>
   <si>
-    <t>كوبون مجموعة طبيب - Tabib Group Coupon</t>
-  </si>
-  <si>
     <t>خصم 30% لجميع الخدمات</t>
   </si>
   <si>
@@ -562,18 +535,12 @@
     <t>https://tabibgroup.net/</t>
   </si>
   <si>
-    <t>كوبون نسبة - Nesbh Coupon</t>
-  </si>
-  <si>
     <t>LA266</t>
   </si>
   <si>
     <t>https://www.nesbh.com/</t>
   </si>
   <si>
-    <t>كوبون ستور اص - Storeus Coupon</t>
-  </si>
-  <si>
     <t>ADM40</t>
   </si>
   <si>
@@ -583,9 +550,6 @@
     <t>الحد الأقصى للخصم هو 40 درهم إماراتي,لا ينطبق الكوبون على المنتجات المخفضة</t>
   </si>
   <si>
-    <t>كوبون سويس اربيان - Swiss Arabian Coupon</t>
-  </si>
-  <si>
     <t>A14</t>
   </si>
   <si>
@@ -595,9 +559,6 @@
     <t>السعودية - قطر - الإمارات - عمان - الكويت</t>
   </si>
   <si>
-    <t>كوبون فسرلي - Fasrly Coupon</t>
-  </si>
-  <si>
     <t>خصم 10% على جميع الخدمات</t>
   </si>
   <si>
@@ -658,7 +619,46 @@
     <t>https://d.top4top.io/p_3397flakg4.png</t>
   </si>
   <si>
-    <t>كوبون بينه - Bynh Coupon</t>
+    <t>بلندز - Blends Coupon</t>
+  </si>
+  <si>
+    <t>تيمو - Temu Coupon</t>
+  </si>
+  <si>
+    <t>كوهوم - Coohom Coupon</t>
+  </si>
+  <si>
+    <t>بيتونيا - Baytonia Coupon</t>
+  </si>
+  <si>
+    <t>جلوبال يو - Global YO Coupon</t>
+  </si>
+  <si>
+    <t>ون كارد - OneCard Coupon</t>
+  </si>
+  <si>
+    <t>بازل إنجلش - Puzzle English Coupon</t>
+  </si>
+  <si>
+    <t>سيفي - Sivvi Coupon</t>
+  </si>
+  <si>
+    <t>مجموعة طبيب - Tabib Group Coupon</t>
+  </si>
+  <si>
+    <t>نسبة - Nesbh Coupon</t>
+  </si>
+  <si>
+    <t>ستور اص - Storeus Coupon</t>
+  </si>
+  <si>
+    <t>سويس اربيان - Swiss Arabian Coupon</t>
+  </si>
+  <si>
+    <t>فسرلي - Fasrly Coupon</t>
+  </si>
+  <si>
+    <t>بينه - Bynh Coupon</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1329,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1513,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1633,19 +1633,19 @@
     </row>
     <row r="26" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
@@ -1656,42 +1656,42 @@
     </row>
     <row r="27" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1702,19 +1702,19 @@
     </row>
     <row r="29" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>8</v>
@@ -1725,19 +1725,19 @@
     </row>
     <row r="30" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1748,42 +1748,42 @@
     </row>
     <row r="31" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1794,42 +1794,42 @@
     </row>
     <row r="33" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>8</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="35" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>8</v>
@@ -1863,45 +1863,45 @@
     </row>
     <row r="36" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
@@ -1909,22 +1909,22 @@
     </row>
     <row r="38" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>27</v>
@@ -1935,16 +1935,16 @@
         <v>214</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>8</v>

--- a/coupons.xlsx
+++ b/coupons.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="227">
   <si>
     <t>title</t>
   </si>
@@ -659,6 +659,42 @@
   </si>
   <si>
     <t>بينه - Bynh Coupon</t>
+  </si>
+  <si>
+    <t>دكني - DKNY Coupon</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>https://dkny.com.kw/</t>
+  </si>
+  <si>
+    <t>هواوي - Huawei Coupon</t>
+  </si>
+  <si>
+    <t>AEB09</t>
+  </si>
+  <si>
+    <t>https://consumer.huawei.com/ae-en/offer/</t>
+  </si>
+  <si>
+    <t>ريبوك - Reebok Coupon</t>
+  </si>
+  <si>
+    <t>ADM84</t>
+  </si>
+  <si>
+    <t>https://www.reebok.ae/</t>
+  </si>
+  <si>
+    <t>https://e.top4top.io/p_3398jj9fc1.png</t>
+  </si>
+  <si>
+    <t>https://f.top4top.io/p_339868wzq2.png</t>
+  </si>
+  <si>
+    <t>https://g.top4top.io/p_3398epsnm3.png</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1954,31 +1990,73 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="19.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
